--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
@@ -543,10 +543,10 @@
         <v>0.370282</v>
       </c>
       <c r="I2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>5.393249859357555</v>
+        <v>5.713601388779778</v>
       </c>
       <c r="R2">
-        <v>48.53924873421799</v>
+        <v>51.422412499018</v>
       </c>
       <c r="S2">
-        <v>0.1698228164402382</v>
+        <v>0.1750713083782022</v>
       </c>
       <c r="T2">
-        <v>0.1698228164402382</v>
+        <v>0.1750713083782022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.370282</v>
       </c>
       <c r="I3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>5.778401602771112</v>
+        <v>5.778401602771111</v>
       </c>
       <c r="R3">
-        <v>52.00561442494001</v>
+        <v>52.00561442494</v>
       </c>
       <c r="S3">
-        <v>0.1819504863107288</v>
+        <v>0.1770568613551615</v>
       </c>
       <c r="T3">
-        <v>0.1819504863107288</v>
+        <v>0.1770568613551614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.370282</v>
       </c>
       <c r="I4">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J4">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>2.622855930224445</v>
+        <v>4.756326886023778</v>
       </c>
       <c r="R4">
-        <v>23.60570337202</v>
+        <v>42.806941974214</v>
       </c>
       <c r="S4">
-        <v>0.08258856771022188</v>
+        <v>0.1457393182250744</v>
       </c>
       <c r="T4">
-        <v>0.08258856771022188</v>
+        <v>0.1457393182250744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.370282</v>
       </c>
       <c r="I5">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J5">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>2.232680817771556</v>
+        <v>1.984644087533555</v>
       </c>
       <c r="R5">
-        <v>20.094127359944</v>
+        <v>17.861796787802</v>
       </c>
       <c r="S5">
-        <v>0.07030272184185908</v>
+        <v>0.06081177412058959</v>
       </c>
       <c r="T5">
-        <v>0.07030272184185908</v>
+        <v>0.06081177412058958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H6">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I6">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J6">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>5.293550723868111</v>
+        <v>4.513378162094555</v>
       </c>
       <c r="R6">
-        <v>47.641956514813</v>
+        <v>40.620403458851</v>
       </c>
       <c r="S6">
-        <v>0.1666834870141969</v>
+        <v>0.1382950903077</v>
       </c>
       <c r="T6">
-        <v>0.1666834870141969</v>
+        <v>0.1382950903077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H7">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I7">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J7">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>5.671582586532223</v>
+        <v>4.564566169592222</v>
       </c>
       <c r="R7">
-        <v>51.04424327879001</v>
+        <v>41.08109552633</v>
       </c>
       <c r="S7">
-        <v>0.178586965861998</v>
+        <v>0.1398635496446583</v>
       </c>
       <c r="T7">
-        <v>0.178586965861998</v>
+        <v>0.1398635496446583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H8">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I8">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J8">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>2.574370049618889</v>
+        <v>3.757192782352555</v>
       </c>
       <c r="R8">
-        <v>23.16933044657</v>
+        <v>33.814735041173</v>
       </c>
       <c r="S8">
-        <v>0.08106184281952648</v>
+        <v>0.115124701825949</v>
       </c>
       <c r="T8">
-        <v>0.08106184281952648</v>
+        <v>0.1151247018259489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H9">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I9">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J9">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>2.191407679467111</v>
+        <v>1.567741372682111</v>
       </c>
       <c r="R9">
-        <v>19.722669115204</v>
+        <v>14.109672354139</v>
       </c>
       <c r="S9">
-        <v>0.06900311200123078</v>
+        <v>0.04803739614266515</v>
       </c>
       <c r="T9">
-        <v>0.06900311200123078</v>
+        <v>0.04803739614266514</v>
       </c>
     </row>
   </sheetData>
